--- a/Docs/Lab01/Lab01_ReviewReport_final.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport_final.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ralph\OneDrive\Documents\Year3\Semester2\VVSS\lab01\inventory\Verificare_si_validare_sisteme_soft\Docs\Lab01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF66218-118F-4D06-AAAF-3B62D4865F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -12,12 +18,20 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="DynamicCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="124">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -58,9 +72,6 @@
     <t>Georgescu Anca</t>
   </si>
   <si>
-    <t>Firicescu George</t>
-  </si>
-  <si>
     <t>Requirements Document</t>
   </si>
   <si>
@@ -116,19 +127,693 @@
   </si>
   <si>
     <t>Effort to perform dynamic code analysis (hours):</t>
+  </si>
+  <si>
+    <t>Petroaie Radu</t>
+  </si>
+  <si>
+    <t>Pop Rafael</t>
+  </si>
+  <si>
+    <t>Popa Cristi</t>
+  </si>
+  <si>
+    <t>Petroaie Radu-Mihai</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>cerinta</t>
+  </si>
+  <si>
+    <t>Lipsa detaliilor referitoare la atributele ce definesc piesele si produsele; Nu se specifica numele fisierului de intrare, nici modul in care sunt dispuse informatiile(separatori, ordinea campurilor)</t>
+  </si>
+  <si>
+    <t>F01a, F01b</t>
+  </si>
+  <si>
+    <t>Nu se specifica tipul de date al atributelor ce compun  o piesa / un produs cat nici domeniul de valori pe care acestea le pot avea pentru a fi valide. Cand o piesa este fabricata de companie sau cand a fost achizitionata? Care sunt valorile implicite pentru aceste campuri?</t>
+  </si>
+  <si>
+    <t>F02a, F02b</t>
+  </si>
+  <si>
+    <t>Nu se specifica ce si cum va trebui sa afiseze programul in urma cautarii unei piese repsectiv unui produs.</t>
+  </si>
+  <si>
+    <t>F03a, F03b</t>
+  </si>
+  <si>
+    <t>Cum se selecteaza piesa/produsul pentru care se va face actualizarea? Care sunt campurile ce se pot actualiza?</t>
+  </si>
+  <si>
+    <t>F04a, F04b</t>
+  </si>
+  <si>
+    <t>Dupa ce camp se face stergerea pieselor/produselor?(id, denumire)</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>Detalii lipsa in cazul introducerii unor date eronate. Cum se trateaza exceptiile ce survin in urma incercarii de a adauga o piesa/un produs gresit?</t>
+  </si>
+  <si>
+    <t>In cazul in care numele piesei/produsului nu este inregistrat se va afisa un mesaj corespunzator?</t>
+  </si>
+  <si>
+    <t>Ce se intampla daca dupa actualizare produsul se afla deja in baza de date? Daca actualizarea produsului a dus la o neconcordanta?</t>
+  </si>
+  <si>
+    <t>Daca se incearca stergerea unui obiect inexistent se va afisa un mesaj de eroare? Daca se sterge un produs se vor actualiza nr. pieselor existente din stoc din care era compus produsul finit?</t>
+  </si>
+  <si>
+    <t>R03</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>Nu s-a definit o stare initiala a aplicatiei</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>F01-F04</t>
+  </si>
+  <si>
+    <t>Functiilor le lipsesc informatii despre modul in care sunt apelate si nu sunt tratate cazurile de exceptie.</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>In enuntul problemei nu se specifica platforma pe care va rula aplicatia si nici tehnologiile necesare implementarii acesteia.</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>AddProductController.java/line 174</t>
+  </si>
+  <si>
+    <t>added call to result.isPresent() to if</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>Main.java/line 19</t>
+  </si>
+  <si>
+    <t>changed System.out to ApplicationLogger.log</t>
+  </si>
+  <si>
+    <t>Main.java/line 20</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>Product.java/line 61</t>
+  </si>
+  <si>
+    <t>changed "associatedParts = associatedParts" to "this.associatedParts = associatedParts"</t>
+  </si>
+  <si>
+    <t>AddPartController.java/line 109</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>InventoryRepository.java/line 50</t>
+  </si>
+  <si>
+    <t>2 similar branches merged into one</t>
+  </si>
+  <si>
+    <t>Main.java/22</t>
+  </si>
+  <si>
+    <t>Standard outputs should not be used directly to log anything</t>
+  </si>
+  <si>
+    <t>System.err.println(service.getAllParts());</t>
+  </si>
+  <si>
+    <t>ApplicationLogger.log(Level.INFO, service.getAllProducts().toString());</t>
+  </si>
+  <si>
+    <t>InventoryService.java/47</t>
+  </si>
+  <si>
+    <t>Methods should not have too many parameters</t>
+  </si>
+  <si>
+    <t>public void updateInhousePart(int partIndex, int partId, String name, double price, int inStock, int min, int max, int partDynamicValue)</t>
+  </si>
+  <si>
+    <t>changing ,method requires creating new classes to wrap all the parameters into one which is too costly timewise and requires redesign of all the UML diagrams</t>
+  </si>
+  <si>
+    <t>AddProductController/28</t>
+  </si>
+  <si>
+    <t>Unused "private" fields should be removed</t>
+  </si>
+  <si>
+    <t>private int productId;</t>
+  </si>
+  <si>
+    <t>ModifyPartController, 207</t>
+  </si>
+  <si>
+    <r>
+      <t>System.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>.println(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>"Blank Fields"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ApplicationLogger.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>(Level.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>INFO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>"Blank Fields"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>ModifyProductController, 175</t>
+  </si>
+  <si>
+    <t>Optional value should only be accessed after calling isPresent()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">(result.get() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>(result.isPresent() &amp;&amp; result.get()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> ...</t>
+    </r>
+  </si>
+  <si>
+    <t>ModifyPartController, 120</t>
+  </si>
+  <si>
+    <t>Sections of code should not be commented out</t>
+  </si>
+  <si>
+    <t>//scene = FXMLLoader.load(getClass().getResource(source));</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>ModifyPartController, 34</t>
+  </si>
+  <si>
+    <t>Constructors should not be used to instantiate "String", "BigInteger", "BigDecimal" and primitive-wrapper classes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">private </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">errorMessage </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>String()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">private </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>errorMessage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>ModifyPartController, 69</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">private int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>partId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>ModifyPartController, 37</t>
+  </si>
+  <si>
+    <t>Methods should not be empty</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC66D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ModifyPartController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>(){}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFC66D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ModifyPartController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">(){ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">throw new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>UnsupportedOperationException(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>"Not implemented yet"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="238"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>SonarLint</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>Da</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>Da, (validarile ar putea fi puse intr-o clasa separata)</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>Nu, lipseste o strategie de tratare a unei erori interne (ex file not found / )</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>Da, factory</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>Nu, functiile de validare din clasele din domeniu ar trebui sa apartine unei clase separate care se ocupa doar cu validarea datelor</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>A10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,6 +878,108 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF9876AA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC7832"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9876AA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFC66D"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -200,12 +987,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -219,8 +1000,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5DFEC"/>
+        <bgColor rgb="FFE5DFEC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -289,82 +1076,212 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,6 +1291,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -422,7 +1342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,9 +1375,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,6 +1427,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -665,270 +1619,381 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="58.85546875" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.41796875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.89453125" style="6"/>
+    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="H4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="I4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="H5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="21"/>
+      <c r="C6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="19"/>
+      <c r="C7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="25">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B11" s="25">
+        <f t="shared" ref="B11:B25" si="0">B10+1</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="25">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="25">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="32">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="32">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="32">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="32">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="32">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="H4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="H5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="C23" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="32">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="37"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="32">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="37"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="19"/>
+      <c r="C27" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="3">
-        <f>B10+1</f>
-        <v>2</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="3">
-        <f t="shared" ref="B12:B25" si="0">B11+1</f>
-        <v>3</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="3">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -945,104 +2010,125 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="22.05078125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="22" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="41"/>
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="H4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="54"/>
+      <c r="H4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="41"/>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="H5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="58"/>
+      <c r="H5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="41"/>
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1056,97 +2142,157 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="3">
+      <c r="C10" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="18">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="3">
+      <c r="C11" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="18">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="3">
+      <c r="C12" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="3">
+      <c r="C13" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="3">
+      <c r="C14" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="3">
+      <c r="C15" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="3">
+      <c r="C16" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B17" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="3">
+      <c r="C17" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="3">
+      <c r="C18" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="3">
+      <c r="C19" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1154,8 +2300,8 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1163,8 +2309,8 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1172,8 +2318,8 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1181,8 +2327,8 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1190,8 +2336,8 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1199,8 +2345,8 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1208,15 +2354,21 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="41"/>
       <c r="C28" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1233,105 +2385,126 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="41"/>
+      <c r="C4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="61"/>
+      <c r="H4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="H4" s="18" t="s">
+      <c r="I4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="41"/>
+      <c r="C5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="63"/>
+      <c r="H5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="31"/>
-      <c r="H5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="41"/>
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1345,61 +2518,97 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="3">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="3">
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="18">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="3">
+      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="18">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="3">
+      <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="3">
+      <c r="C13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="3">
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="3">
+      <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1407,8 +2616,8 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1416,8 +2625,8 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1425,8 +2634,8 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1434,8 +2643,8 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1443,8 +2652,8 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1452,8 +2661,8 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1461,8 +2670,8 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1470,8 +2679,8 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1479,8 +2688,8 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1488,8 +2697,8 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1497,8 +2706,8 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1506,8 +2715,8 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1515,8 +2724,8 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1524,8 +2733,8 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -1533,15 +2742,21 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="41"/>
       <c r="C32" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1558,202 +2773,288 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.9453125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.62890625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="50.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="95.42578125" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
+      <c r="D4" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="67"/>
+      <c r="H4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="H4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="H5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="H5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="3">
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="68">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="3">
+      <c r="C10" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="68">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="3">
+      <c r="C11" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="68">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="3">
+      <c r="C12" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="68">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="3">
+      <c r="C13" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="68">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="3">
+      <c r="C14" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="68">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="3">
+      <c r="C15" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="68">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="3">
+      <c r="C16" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="68">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="3">
+      <c r="C17" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="68">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="3">
+      <c r="C18" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1762,8 +3063,8 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1772,8 +3073,8 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1782,8 +3083,8 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1792,8 +3093,8 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1802,8 +3103,8 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1812,8 +3113,8 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1822,8 +3123,8 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1832,8 +3133,8 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1842,8 +3143,8 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1852,8 +3153,8 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1862,8 +3163,8 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -1872,16 +3173,18 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="19"/>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="16">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Docs/Lab01/Lab01_ReviewReport_final.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ralph\OneDrive\Documents\Year3\Semester2\VVSS\lab01\inventory\Verificare_si_validare_sisteme_soft\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF66218-118F-4D06-AAAF-3B62D4865F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988EA00A-EF6D-44A6-9AD5-83E64E492C9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="127">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -297,195 +297,12 @@
     <t>ModifyPartController, 207</t>
   </si>
   <si>
-    <r>
-      <t>System.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>out</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>.println(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>"Blank Fields"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ApplicationLogger.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>log</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>(Level.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>INFO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>"Blank Fields"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
     <t>ModifyProductController, 175</t>
   </si>
   <si>
     <t>Optional value should only be accessed after calling isPresent()</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">if </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">(result.get() </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">if </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>(result.isPresent() &amp;&amp; result.get()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> ...</t>
-    </r>
-  </si>
-  <si>
     <t>ModifyPartController, 120</t>
   </si>
   <si>
@@ -504,250 +321,15 @@
     <t>Constructors should not be used to instantiate "String", "BigInteger", "BigDecimal" and primitive-wrapper classes</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">private </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">String </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">errorMessage </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">new </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>String()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">private </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">String </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>errorMessage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
     <t>ModifyPartController, 69</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">private int </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>partId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
     <t>ModifyPartController, 37</t>
   </si>
   <si>
     <t>Methods should not be empty</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">public </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC66D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>ModifyPartController</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>(){}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">public </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFC66D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>ModifyPartController</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">(){ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">throw new </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>UnsupportedOperationException(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>"Not implemented yet"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
     <t>SonarLint</t>
   </si>
   <si>
@@ -794,13 +376,49 @@
   </si>
   <si>
     <t>A10</t>
+  </si>
+  <si>
+    <t>System.out.println("Blank Fields");</t>
+  </si>
+  <si>
+    <t>ApplicationLogger.log(Level.INFO,"Blank Fields");</t>
+  </si>
+  <si>
+    <t>if (result.get() ...</t>
+  </si>
+  <si>
+    <t>if (result.isPresent() &amp;&amp; result.get() ...</t>
+  </si>
+  <si>
+    <t>private String errorMessage = new String();</t>
+  </si>
+  <si>
+    <t>private String errorMessage;</t>
+  </si>
+  <si>
+    <t>private int partId;</t>
+  </si>
+  <si>
+    <t>public ModifyPartController(){}</t>
+  </si>
+  <si>
+    <t>public ModifyPartController(){ throw new UnsupportedOperationException("Not implemented yet");}</t>
+  </si>
+  <si>
+    <t>MainScreenController, 140</t>
+  </si>
+  <si>
+    <t>if (result.get() == ButtonType.OK)</t>
+  </si>
+  <si>
+    <t>if (result.isPresent() &amp;&amp; result.get() == ButtonType.OK)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -930,21 +548,6 @@
       <charset val="238"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF9876AA"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF6A8759"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFCC7832"/>
       <name val="Consolas"/>
@@ -952,30 +555,8 @@
       <charset val="238"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF808080"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF9876AA"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFC66D"/>
       <name val="Consolas"/>
       <family val="3"/>
       <charset val="238"/>
@@ -1132,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1209,15 +790,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1279,9 +851,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1625,7 +1200,7 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -1646,19 +1221,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
       <c r="H2" s="3"/>
       <c r="I2" s="17" t="s">
         <v>30</v>
@@ -1683,10 +1258,10 @@
       <c r="C4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="48"/>
+      <c r="E4" s="45"/>
       <c r="H4" s="15" t="s">
         <v>20</v>
       </c>
@@ -1702,10 +1277,10 @@
       <c r="C5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="48"/>
+      <c r="E5" s="45"/>
       <c r="H5" s="15" t="s">
         <v>21</v>
       </c>
@@ -1721,16 +1296,16 @@
       <c r="C6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="19"/>
       <c r="C7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="19"/>
@@ -2036,19 +1611,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
       <c r="H2" s="3"/>
       <c r="I2" s="17" t="s">
         <v>30</v>
@@ -2073,10 +1648,10 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="51"/>
       <c r="H4" s="15" t="s">
         <v>20</v>
       </c>
@@ -2092,10 +1667,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="55"/>
       <c r="H5" s="15" t="s">
         <v>21</v>
       </c>
@@ -2111,16 +1686,16 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="41"/>
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="41"/>
@@ -2147,13 +1722,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>53</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2162,13 +1737,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2177,13 +1752,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>53</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2192,13 +1767,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2207,13 +1782,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2222,13 +1797,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2237,13 +1812,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>53</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="60" x14ac:dyDescent="0.25">
@@ -2252,13 +1827,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D17" s="42" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -2267,13 +1842,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D18" s="42" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -2282,13 +1857,13 @@
         <v>10</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>53</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -2412,19 +1987,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
       <c r="H2" s="3"/>
       <c r="I2" s="17" t="s">
         <v>30</v>
@@ -2449,10 +2024,10 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="61"/>
+      <c r="E4" s="58"/>
       <c r="H4" s="15" t="s">
         <v>20</v>
       </c>
@@ -2468,10 +2043,10 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="63"/>
+      <c r="E5" s="60"/>
       <c r="H5" s="15" t="s">
         <v>21</v>
       </c>
@@ -2487,16 +2062,16 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="41"/>
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="41"/>
@@ -2779,8 +2354,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2801,19 +2376,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
       <c r="H2" s="3"/>
       <c r="I2" s="17" t="s">
         <v>30</v>
@@ -2837,10 +2412,10 @@
       <c r="C4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="67"/>
+      <c r="D4" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="64"/>
       <c r="H4" s="15" t="s">
         <v>20</v>
       </c>
@@ -2855,8 +2430,8 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
       <c r="H5" s="15" t="s">
         <v>21</v>
       </c>
@@ -2872,303 +2447,302 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="67" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="68">
+      <c r="B10" s="65">
         <v>1</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="68">
-        <f>B10+1</f>
+      <c r="B11" s="65">
         <v>2</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="68">
-        <f t="shared" ref="B12:B30" si="0">B11+1</f>
+      <c r="B12" s="65">
         <v>3</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="65">
+        <v>4</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="65">
+        <v>5</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="69" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="65">
+        <v>6</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="65">
+        <v>7</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="65">
+        <v>8</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="65">
+        <v>9</v>
+      </c>
+      <c r="C18" s="66" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="68">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="44" t="s">
+      <c r="D18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="69" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="65">
+        <v>10</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="66" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="68">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="68">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="68">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="68">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="68">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="18">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="18">
-        <f t="shared" si="0"/>
+      <c r="B20" s="65">
+        <f t="shared" ref="B12:B30" si="0">B19+1</f>
         <v>11</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="18">
+      <c r="B21" s="65">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="18">
+      <c r="B22" s="65">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="18">
+      <c r="B23" s="65">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="18">
+      <c r="B24" s="65">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="18">
+      <c r="B25" s="65">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="18">
+      <c r="B26" s="65">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="18">
+      <c r="B27" s="65">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="18">
+      <c r="B28" s="65">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="18">
+      <c r="B29" s="65">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="18">
+      <c r="B30" s="65">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -3177,11 +2751,11 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
       <c r="F32" s="16">
         <v>2</v>
       </c>
